--- a/data/income_statement/2digits/size/20_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/20_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>20-Manufacture of chemicals and chemical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>20-Manufacture of chemicals and chemical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,881 +841,996 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>18327623.59361</v>
+        <v>18081480.48655</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>23219956.60605</v>
+        <v>22911011.27593</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>31686494.68381</v>
+        <v>31291957.01735</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>34251748.7425</v>
+        <v>34677893.50778999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>36456496.70689999</v>
+        <v>35938025.74179</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>41362098.01678</v>
+        <v>42115117.81337</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>42800474.31022</v>
+        <v>47619207.00053</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>52088927.75161001</v>
+        <v>51355667.86927</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>71967001.81598999</v>
+        <v>71167578.12899001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>89878516.15755001</v>
+        <v>89294332.08579001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>106738073.96308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>105780452.804</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>142335048.162</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>13930448.99506</v>
+        <v>13711546.61926</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>17937355.39756</v>
+        <v>17689603.28011</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>23869481.37582</v>
+        <v>23507407.54931</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>25471462.01544</v>
+        <v>25870216.77965</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>27455821.59755</v>
+        <v>27015456.19058</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>31338186.38986</v>
+        <v>32138419.52072</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>32241977.30907</v>
+        <v>35760808.90738</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>40331168.48979</v>
+        <v>39763048.58103</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>54331742.95762999</v>
+        <v>53653879.23268</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>63399022.3479</v>
+        <v>63040289.15095001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>77549468.22119001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>76878948.57370999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>108515001.919</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4259987.432390001</v>
+        <v>4235379.67954</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>5172711.450850001</v>
+        <v>5114489.01212</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>7505955.89031</v>
+        <v>7481282.73338</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8530633.437799999</v>
+        <v>8561380.6456</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8674943.19875</v>
+        <v>8618658.013840001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9661244.76685</v>
+        <v>9627922.821959998</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10260869.31419</v>
+        <v>11360697.27642</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>11203099.93942</v>
+        <v>11056632.55139</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17075289.34931</v>
+        <v>16964017.45534</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>25237940.30625</v>
+        <v>25049690.29298</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>28270351.87325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28032128.83104</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>32262503.481</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>137187.16616</v>
+        <v>134554.18775</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>109889.75764</v>
+        <v>106918.9837</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>311057.41768</v>
+        <v>303266.73466</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>249653.28926</v>
+        <v>246296.08254</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>325731.9105999999</v>
+        <v>303911.53737</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>362666.8600699999</v>
+        <v>348775.4706899999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>297627.68696</v>
+        <v>497700.81673</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>554659.3223999999</v>
+        <v>535986.73685</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>559969.50905</v>
+        <v>549681.44097</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1241553.5034</v>
+        <v>1204352.64186</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>918253.86864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>869375.39925</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1557542.762</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1805458.17045</v>
+        <v>1794517.01827</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2279921.12701</v>
+        <v>2275786.51362</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2580992.61547</v>
+        <v>2568730.63054</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2509789.83666</v>
+        <v>2652070.70606</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2938548.45222</v>
+        <v>2930532.39305</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3747745.14928</v>
+        <v>3731352.16608</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4172272.42113</v>
+        <v>4308553.74085</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4382230.67206</v>
+        <v>4315851.16532</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4975972.917400001</v>
+        <v>4947777.74024</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6185224.65258</v>
+        <v>6176025.815359999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6943102.088820001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6826888.294</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>9710510.953</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>179124.11384</v>
+        <v>175104.04913</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>200192.55926</v>
+        <v>197502.07974</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>221266.57428</v>
+        <v>215454.75403</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>243033.68941</v>
+        <v>268565.72604</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>242008.06891</v>
+        <v>237213.66208</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>352244.1775</v>
+        <v>348465.5746700001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>432984.98791</v>
+        <v>529451.1420999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>537800.16432</v>
+        <v>520649.8986</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>531991.1994500001</v>
+        <v>514329.6621</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>753420.1891600001</v>
+        <v>748458.54397</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>842727.1175299999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>823310.9753900002</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1238527.053</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1521623.37116</v>
+        <v>1515617.70116</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1970906.41524</v>
+        <v>1969844.66615</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2184936.18979</v>
+        <v>2180975.42246</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2087281.54452</v>
+        <v>2204930.45297</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2524076.73576</v>
+        <v>2521425.10519</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3097178.19405</v>
+        <v>3085642.61757</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3401506.66317</v>
+        <v>3366164.96371</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3538943.22217</v>
+        <v>3492075.10427</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4043534.93694</v>
+        <v>4036294.38326</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4762973.68866</v>
+        <v>4762760.723479999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5391274.76968</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5294697.888229999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7376948.516</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>104710.68545</v>
+        <v>103795.26798</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>108822.15251</v>
+        <v>108439.76773</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>174789.8514</v>
+        <v>172300.45405</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>179474.60273</v>
+        <v>178574.52705</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>172463.64755</v>
+        <v>171893.62578</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>298322.77773</v>
+        <v>297243.97384</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>337780.7700500001</v>
+        <v>412937.63504</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>305487.28557</v>
+        <v>303126.16245</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>400446.7810099999</v>
+        <v>397153.69488</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>668830.7747599999</v>
+        <v>664806.54791</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>709100.20161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>708879.43038</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1095035.384</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>16522165.42316</v>
+        <v>16286963.46828</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>20940035.47904</v>
+        <v>20635224.76231</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>29105502.06834</v>
+        <v>28723226.38681</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>31741958.90583999</v>
+        <v>32025822.80173</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>33517948.25468</v>
+        <v>33007493.34874</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>37614352.8675</v>
+        <v>38383765.64729</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>38628201.88908999</v>
+        <v>43310653.25968</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>47706697.07955001</v>
+        <v>47039816.70395</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>66991028.89858999</v>
+        <v>66219800.38875</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>83693291.50497</v>
+        <v>83118306.27043</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>99794971.87426001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>98953564.51000001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>132624537.209</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>12694036.77883</v>
+        <v>12507150.07031</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>15933093.43765</v>
+        <v>15687421.39052</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>22136055.34532</v>
+        <v>21839638.3603</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>25089469.50817</v>
+        <v>25247749.48566</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>25586595.83993</v>
+        <v>25170000.4711</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>28688220.80205</v>
+        <v>29243217.03659</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>28789462.58165</v>
+        <v>32094789.77944</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>34491116.56727</v>
+        <v>34006436.81697</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>48382415.37959</v>
+        <v>47824951.28716</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>59536364.37751</v>
+        <v>59142817.23719</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>74069963.4015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>73459413.48048002</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>95746283.833</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>10189881.71573</v>
+        <v>10023087.62068</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>13428107.5306</v>
+        <v>13242743.01632</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>18807312.06499</v>
+        <v>18553429.65356</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>21529597.75234</v>
+        <v>21733147.19533</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>21962655.9748</v>
+        <v>21646731.63957</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>24173957.331</v>
+        <v>24769300.47532</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>24038179.15045</v>
+        <v>27272102.7821</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28995816.28073</v>
+        <v>28638170.25502</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>40353316.33717</v>
+        <v>39868177.39424</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>49550042.78028001</v>
+        <v>49191081.97945</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>61271983.29496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>60741529.90681001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>74495090.12899999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2333421.26183</v>
+        <v>2318847.59185</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2257056.40294</v>
+        <v>2212340.4333</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3042175.22902</v>
+        <v>3002288.36484</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3321239.01354</v>
+        <v>3295889.43914</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3397875.2523</v>
+        <v>3298223.10987</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4270345.76727</v>
+        <v>4210799.58045</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4455022.269640001</v>
+        <v>4489282.35677</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5148210.54358</v>
+        <v>5031212.456560001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7612925.5421</v>
+        <v>7544175.77755</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9494093.566420002</v>
+        <v>9459507.22693</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12238471.02438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12167635.49989</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>20495370.964</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>114376.12993</v>
+        <v>109045.8346</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>171132.13195</v>
+        <v>156135.39098</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>169848.00971</v>
+        <v>167851.08766</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>147619.91694</v>
+        <v>127936.9885</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>118571.20522</v>
+        <v>117742.32269</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>136401.77808</v>
+        <v>142806.67948</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>206678.36893</v>
+        <v>219056.66091</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>218888.44948</v>
+        <v>215998.10289</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>255474.15227</v>
+        <v>254801.39013</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>265496.03816</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>270991.29246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>265601.43715</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>393769.174</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>56357.67133999999</v>
+        <v>56169.02318</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>76797.37216</v>
+        <v>76202.54992</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>116720.0416</v>
+        <v>116069.25424</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>91012.82535000001</v>
+        <v>90775.86268999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>107493.40761</v>
+        <v>107303.39897</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>107515.9257</v>
+        <v>120310.30134</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>89582.79263</v>
+        <v>114347.97966</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>128201.29348</v>
+        <v>121056.0025</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>160699.34805</v>
+        <v>157796.72524</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>226731.99265</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>288517.7897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>284646.63663</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>362053.566</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3828128.64433</v>
+        <v>3779813.39797</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5006942.04139</v>
+        <v>4947803.37179</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6969446.723019999</v>
+        <v>6883588.026509999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6652489.397670001</v>
+        <v>6778073.316070001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7931352.414750002</v>
+        <v>7837492.877640001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8926132.06545</v>
+        <v>9140548.6107</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9838739.30744</v>
+        <v>11215863.48024</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>13215580.51228</v>
+        <v>13033379.88698</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>18608613.519</v>
+        <v>18394849.10159</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>24156927.12746</v>
+        <v>23975489.03324</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>25725008.47276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>25494151.02952</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>36878253.376</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2357015.17307</v>
+        <v>2316984.69607</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2827697.2558</v>
+        <v>2780082.45154</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3409798.22763</v>
+        <v>3334491.85877</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3676644.31666</v>
+        <v>3775104.43695</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4243408.68121</v>
+        <v>4156650.72758</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4664190.22954</v>
+        <v>4803142.20212</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4983289.56483</v>
+        <v>5486029.77139</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6351495.411069999</v>
+        <v>6250770.84823</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7976883.389499999</v>
+        <v>7855746.075750001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9124408.6314</v>
+        <v>9075888.76025</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11373213.03994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11286189.30781</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>13785566.745</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>64227.68076</v>
+        <v>63400.62571</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>62705.18635000001</v>
+        <v>61561.90541</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>84454.08087999999</v>
+        <v>82716.06241</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>83809.29554000001</v>
+        <v>89534.85653</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>104993.76316</v>
+        <v>101824.61086</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>116709.79818</v>
+        <v>119300.9676</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>118278.96479</v>
+        <v>127015.9916</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>160294.35532</v>
+        <v>157641.95743</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>185656.851</v>
+        <v>179727.21038</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>207189.22311</v>
+        <v>204652.07852</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>257778.18612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>252935.61473</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>341356.21</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1488345.85525</v>
+        <v>1473724.65473</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1826205.54622</v>
+        <v>1804779.14844</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2163648.29412</v>
+        <v>2132740.20082</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2295677.25975</v>
+        <v>2405989.16377</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2704252.90178</v>
+        <v>2670105.53679</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2886420.202839999</v>
+        <v>3028386.78099</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3071393.65083</v>
+        <v>3358387.74269</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3826168.21742</v>
+        <v>3787263.7895</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4986693.37341</v>
+        <v>4919767.646639999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5874117.414409999</v>
+        <v>5850189.993849999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6655386.485280001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6594455.514799999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>8371586.287</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>804441.6370600001</v>
+        <v>779859.4156299999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>938786.52323</v>
+        <v>913741.39769</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1161695.85263</v>
+        <v>1119035.59554</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1297157.76137</v>
+        <v>1279580.41665</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1434162.01627</v>
+        <v>1384720.57993</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1661060.22852</v>
+        <v>1655454.45353</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1793616.94921</v>
+        <v>2000626.0371</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2365032.83833</v>
+        <v>2305865.1013</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>2804533.165090001</v>
+        <v>2756251.21873</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3043101.993879999</v>
+        <v>3021046.68788</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4460048.36854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4438798.17828</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5072624.248</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1471113.47126</v>
+        <v>1462828.7019</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2179244.78559</v>
+        <v>2167720.92025</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3559648.495389999</v>
+        <v>3549096.16774</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2975845.08101</v>
+        <v>3002968.87912</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3687943.73354</v>
+        <v>3680842.15006</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4261941.835909999</v>
+        <v>4337406.40858</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4855449.74261</v>
+        <v>5729833.70885</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6864085.101209999</v>
+        <v>6782609.03875</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>10631730.1295</v>
+        <v>10539103.02584</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>15032518.49606</v>
+        <v>14899600.27299</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>14351795.43282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14207961.72171</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>23092686.631</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1024562.2557</v>
+        <v>965743.89435</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1218553.20947</v>
+        <v>1154090.63489</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1583170.82731</v>
+        <v>1478233.62234</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1450641.01582</v>
+        <v>1371321.67861</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2174198.93796</v>
+        <v>2071885.15652</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3224583.27302</v>
+        <v>3352942.82502</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3637147.85004</v>
+        <v>4394650.24061</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5398078.860999999</v>
+        <v>5258824.78983</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7865643.36297</v>
+        <v>7801499.32489</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22840609.47818</v>
+        <v>21994999.54627</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>32899804.31874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>32117773.50394</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>20294616.004</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>74916.78190999999</v>
+        <v>51812.25154999999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>58462.40707</v>
+        <v>39692.92073999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>73711.46420999999</v>
+        <v>45363.19733</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>66641.67880000001</v>
+        <v>38510.40123</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>85653.04807999999</v>
+        <v>64724.21075</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>53895.92588</v>
+        <v>61463.44138</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>48154.04568</v>
+        <v>52822.54827000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>186229.87999</v>
+        <v>168052.30289</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>22421.54176</v>
+        <v>22035.47776</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>256335.97335</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>518978.77329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>518978.7732900001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>501143.157</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>9282.98998</v>
+        <v>7983.414299999999</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>14416.54881</v>
+        <v>13097.14723</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>9970.692899999998</v>
+        <v>9091.091849999999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>14223.19807</v>
@@ -1823,76 +1839,86 @@
         <v>21182.35733</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>15902.57877</v>
+        <v>79148.94972</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>71208.45828000001</v>
+        <v>92928.37678000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>227029.64512</v>
+        <v>187522.68468</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>275319.2856899999</v>
+        <v>270038.24751</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>863268.0344199999</v>
+        <v>352487.58734</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>815238.6581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>263880.91851</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>259918.587</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>111367.41748</v>
+        <v>100311.77302</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>93297.80974999999</v>
+        <v>82331.37253000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>159409.97127</v>
+        <v>144432.45668</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>152901.04535</v>
+        <v>151177.23458</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>160264.34003</v>
+        <v>151325.91167</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>252320.89172</v>
+        <v>255555.62257</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>339790.9292000001</v>
+        <v>396350.9328300001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>559599.1312899999</v>
+        <v>551871.5872899999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>616893.9437599999</v>
+        <v>609423.14111</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1241099.28736</v>
+        <v>1165553.88139</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1148620.90817</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1129567.07214</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1248409.623</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>9614.905670000002</v>
+        <v>9614.90567</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>3117.30481</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>5198.10973</v>
+        <v>5196.788399999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>4532.40672</v>
@@ -1901,16 +1927,16 @@
         <v>4969.07891</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3499.03056</v>
+        <v>4818.88282</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4293.84914</v>
+        <v>3210.21576</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6198.830650000001</v>
+        <v>5288.67524</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>9733.476429999999</v>
+        <v>9653.066419999999</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>11361.93475</v>
@@ -1918,140 +1944,160 @@
       <c r="M29" s="48" t="n">
         <v>12521.3564</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>62002.348</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>36505.80317</v>
+        <v>36130.36156</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>28499.18435</v>
+        <v>28351.39697</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>24487.73589</v>
+        <v>24242.19086</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>23779.16459</v>
+        <v>23436.02684</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>33600.01686</v>
+        <v>33518.99808</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>60063.74311</v>
+        <v>35919.06429</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>74841.6458</v>
+        <v>51585.78867</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>79262.19134</v>
+        <v>55155.0029</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>97747.03179000001</v>
+        <v>95660.16466000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>44821.43763</v>
+        <v>44226.467</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>79713.21041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>77755.52145999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>103023.773</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>735.5690800000001</v>
+        <v>735.56908</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1191.57295</v>
+        <v>548.47996</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1552.77119</v>
+        <v>1500.46377</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1225.44206</v>
+        <v>1088.74483</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>309863.15136</v>
+        <v>309862.49646</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>618154.88009</v>
+        <v>618913.3785399999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6828.73542</v>
+        <v>17166.86371</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>22801.65799</v>
+        <v>22801.65586</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>111291.6752</v>
+        <v>111243.45781</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>351398.24358</v>
+        <v>351398.2435800001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>249290.22934</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>507235.44</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>607032.39636</v>
+        <v>590983.9542899999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>886312.67526</v>
+        <v>860955.2119199999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1125114.34754</v>
+        <v>1074450.87628</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>950448.63244</v>
+        <v>911037.26974</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1246517.67606</v>
+        <v>1179889.99616</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1738147.7648</v>
+        <v>1814350.68965</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2754689.930749999</v>
+        <v>3421881.37121</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3802752.65382</v>
+        <v>3757535.19945</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6102519.101259999</v>
+        <v>6064616.394280001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>19267868.57072</v>
+        <v>19030888.27585</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>29122483.94575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>28943549.28446</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16276683.636</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>11831.09432</v>
+        <v>11813.7095</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>7782.120819999999</v>
+        <v>7765.28967</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>7710.946099999999</v>
+        <v>7676.98424</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>8786.051390000001</v>
+        <v>8779.872789999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>31559.60548</v>
@@ -2060,25 +2106,30 @@
         <v>74509.19310999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>81291.37652999998</v>
+        <v>85038.10460000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>164236.5004</v>
+        <v>162756.81535</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>158547.83197</v>
+        <v>157710.03605</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>251011.63318</v>
+        <v>230301.06804</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>329457.83812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>309435.45891</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>256853.305</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>7443.07678</v>
@@ -2090,7 +2141,7 @@
         <v>312.03153</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>211.86441</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
@@ -2113,188 +2164,213 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>117.53</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>155832.22095</v>
+        <v>148914.8786</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>125473.58565</v>
+        <v>118231.51106</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>175702.75695</v>
+        <v>165967.5414</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>227891.53199</v>
+        <v>218536.52381</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>280589.66385</v>
+        <v>274852.50168</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>408089.26498</v>
+        <v>408263.60294</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>256048.87924</v>
+        <v>273666.03878</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>349968.3704</v>
+        <v>347840.8661699999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>471169.4751099999</v>
+        <v>461119.33929</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>553444.3631900001</v>
+        <v>552446.11497</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>623499.3991599999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>612794.8894300001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1079228.605</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>845502.95897</v>
+        <v>825915.05329</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>957328.2946600001</v>
+        <v>930513.33939</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1473175.26656</v>
+        <v>1438030.56189</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>969271.3755399999</v>
+        <v>919911.6842300001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1697963.21404</v>
+        <v>1614188.02862</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2035592.21159</v>
+        <v>2015846.96857</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3147353.63068</v>
+        <v>3563911.77841</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4387772.2122</v>
+        <v>4335251.72945</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6120766.499020001</v>
+        <v>6078779.92374</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>17084309.21108</v>
+        <v>16845933.2128</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>28989257.58852</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>28851663.77554</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17080480.413</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>20967.10014</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>26685.15497</v>
+        <v>26137.60925</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>31212.37024</v>
+        <v>31002.40992000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>30731.60897</v>
+        <v>30721.78796</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>29196.84739</v>
+        <v>29145.23115</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>30775.63845</v>
+        <v>31056.37793</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>18371.02189</v>
+        <v>39629.66422999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>46648.25431</v>
+        <v>46488.27051</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>58876.97123999999</v>
+        <v>58703.01027000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>85413.00030000001</v>
+        <v>85413.0003</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>94474.035</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>94395.56924</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>102531.949</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>103157.5292</v>
+        <v>102794.3895</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>46196.24407000001</v>
+        <v>46142.939</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>89603.43740000001</v>
+        <v>89295.74698000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>81655.88415000001</v>
+        <v>82086.05417</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>87749.44431000001</v>
+        <v>86021.89644</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>74407.27197000002</v>
+        <v>75333.95456</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>139593.01938</v>
+        <v>143195.95035</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>211962.22993</v>
+        <v>210726.58986</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>161651.10561</v>
+        <v>159427.54134</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>207679.11947</v>
+        <v>206512.44044</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>273498.2412399999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>274002.63099</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>321491.595</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>5155.04708</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>6542.33605</v>
+        <v>6542.336050000001</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>154.51257</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>11911.1194</v>
+        <v>11422.20218</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>17782.78083</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>15242.24189</v>
+        <v>15474.29144</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2295.5269</v>
+        <v>2564.678269999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>20285.87425</v>
@@ -2306,64 +2382,74 @@
         <v>213081.95806</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>169126.68287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>167995.77567</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>130047.157</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>589852.08577</v>
+        <v>574337.31806</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>770686.3517800001</v>
+        <v>748485.8213200001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1219771.857</v>
+        <v>1186722.54916</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>715907.1137999999</v>
+        <v>666521.80912</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1385134.63683</v>
+        <v>1305283.59179</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1571365.33658</v>
+        <v>1573262.97216</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2728559.0778</v>
+        <v>3117547.91231</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3715817.51012</v>
+        <v>3666847.32026</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5447941.78628</v>
+        <v>5409680.22874</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15946992.23478</v>
+        <v>15732499.26924</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>27834772.48511</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>27720686.2666</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15642198.434</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>9106.127480000001</v>
+        <v>8928.10518</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>7475.15335</v>
+        <v>7457.76853</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>7949.483459999999</v>
+        <v>7945.159259999999</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>6665.72711</v>
+        <v>8915.66567</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>49307.49261</v>
@@ -2372,25 +2458,30 @@
         <v>87586.47928</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>87624.14855</v>
+        <v>91296.86439</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>169152.32031</v>
+        <v>167639.455</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>188405.55812</v>
+        <v>187383.15941</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>292316.91681</v>
+        <v>269670.94962</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>284345.44481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>268790.26004</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>354072.731</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>117265.0693</v>
+        <v>113733.09333</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>99743.05443999999</v>
+        <v>95746.86524000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>124483.60589</v>
+        <v>122910.184</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>122399.92211</v>
+        <v>120244.16513</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>128792.01207</v>
+        <v>126647.0358</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>256215.24342</v>
+        <v>233132.8932</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>170910.83616</v>
+        <v>169676.70886</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>223906.02328</v>
+        <v>223264.21957</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>220662.41279</v>
+        <v>220357.319</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>338801.1351199999</v>
+        <v>338730.7486</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>333040.69948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>325793.27299</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>530138.547</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>422452.84997</v>
+        <v>386837.7728</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>438092.73574</v>
+        <v>407548.7858300001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>965103.58445</v>
+        <v>885889.37027</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>563636.37496</v>
+        <v>536962.08456</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1038109.47847</v>
+        <v>995752.1474799999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>999603.6372400002</v>
+        <v>1060116.59188</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1487483.76008</v>
+        <v>1983905.92385</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2495566.3665</v>
+        <v>2431402.82215</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3128194.66334</v>
+        <v>3068863.334</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11092085.55048</v>
+        <v>10932934.00822</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7204723.564110001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7102680.008370001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8950461.220000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>342468.8987</v>
+        <v>323319.06483</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>335271.39581</v>
+        <v>319470.0334</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>682976.46498</v>
+        <v>656591.34051</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>457597.4404</v>
+        <v>441369.51075</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>863032.25027</v>
+        <v>847346.7328400001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>831483.39621</v>
+        <v>873322.28338</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1214864.06334</v>
+        <v>1611322.11145</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1957834.07201</v>
+        <v>1894106.89105</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2478579.078309999</v>
+        <v>2419364.08541</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8651605.704209998</v>
+        <v>8492454.16195</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5562937.776219999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5503501.1173</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6103114.39</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>79983.95127000001</v>
+        <v>63518.70797</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>102821.33993</v>
+        <v>88078.75243000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>282127.11947</v>
+        <v>229298.02976</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>106038.93456</v>
+        <v>95592.57381</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>175077.2282</v>
+        <v>148405.41464</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>168120.24103</v>
+        <v>186794.3085</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>272619.69674</v>
+        <v>372583.8124</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>537732.2944899999</v>
+        <v>537295.9311</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>649615.5850300001</v>
+        <v>649499.2485899999</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>2440479.84627</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1641785.78789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1599178.89107</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2847346.83</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1227719.91802</v>
+        <v>1215819.77016</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2002376.96466</v>
+        <v>1983749.42992</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2704540.47169</v>
+        <v>2703409.85792</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2893578.34633</v>
+        <v>2917416.78894</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3126069.97899</v>
+        <v>3142787.13048</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4451329.260100001</v>
+        <v>4614385.67315</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3857760.20189</v>
+        <v>4576666.2472</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5378825.383509999</v>
+        <v>5274779.27698</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>9248412.33011</v>
+        <v>9192959.09299</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>9696733.212679999</v>
+        <v>9115732.598239999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>11057618.59893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10371391.44174</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>17356361.002</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>154332.57419</v>
+        <v>151144.48354</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>148832.02594</v>
+        <v>139832.00811</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>294624.52057</v>
+        <v>268027.77547</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>458108.75515</v>
+        <v>456372.0926099999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>228905.85722</v>
+        <v>220796.50416</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>332561.11266</v>
+        <v>474887.67074</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>358003.3272299999</v>
+        <v>430409.6731599999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>604469.35229</v>
+        <v>580166.7279899999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>849126.1832400002</v>
+        <v>838202.6072000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1031856.26517</v>
+        <v>1030362.67859</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1090826.10781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1088078.88821</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1620698.392</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>30183.35459</v>
+        <v>30142.18545</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>23651.38114</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>12222.94059</v>
+        <v>12218.28948</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8558.494369999999</v>
+        <v>8555.539379999998</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>16699.47279</v>
+        <v>16604.99147</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>20330.49761</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>36474.8473</v>
+        <v>36706.43816000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>35978.22076</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>32914.76708999999</v>
+        <v>31867.88073</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>33084.23872</v>
+        <v>33076.27292</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>14415.77637</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>299974.354</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>124149.2196</v>
+        <v>121002.29809</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>125180.6448</v>
+        <v>116180.62697</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>282401.57998</v>
+        <v>255809.48599</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>449550.26078</v>
+        <v>447816.55323</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>212206.38443</v>
+        <v>204191.51269</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>312230.61505</v>
+        <v>454557.17313</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>321528.47993</v>
+        <v>393703.235</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>568491.13153</v>
+        <v>544188.50723</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>816211.4161500001</v>
+        <v>806334.72647</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>998772.0264499999</v>
+        <v>997286.4056699999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1076410.33144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1073663.11184</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1320724.038</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>283069.60851</v>
+        <v>273686.21628</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>210497.25893</v>
+        <v>200621.35464</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>331990.0698199999</v>
+        <v>304531.54925</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>327647.20302</v>
+        <v>326008.54081</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>284295.34039</v>
+        <v>268452.73913</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>307445.8649499999</v>
+        <v>329853.96452</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>460002.59631</v>
+        <v>512407.70223</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>536866.65153</v>
+        <v>516297.86201</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>538036.02198</v>
+        <v>530384.99048</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>928732.8602200001</v>
+        <v>927228.3301700001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1000550.57703</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>978199.2708499999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1280892.98</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>156485.69303</v>
+        <v>154170.71432</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>83231.96358</v>
+        <v>81240.41412</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>101037.74219</v>
+        <v>99567.3309</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>103776.20769</v>
+        <v>101134.88459</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>138448.66632</v>
+        <v>127151.53489</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>103116.72589</v>
+        <v>118883.4292</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>186699.05707</v>
+        <v>214264.2734</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>211056.67165</v>
+        <v>210403.80044</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>212251.24226</v>
+        <v>212250.00157</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>349028.74425</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>557654.5279700001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>547501.14789</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>587029.91</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>29634.97797</v>
+        <v>29557.02499</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>44771.64099</v>
+        <v>44606.41771</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>29108.84049</v>
+        <v>28963.13448</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>58723.69019000001</v>
+        <v>58752.50674</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>30957.14765</v>
+        <v>30928.78987</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>28878.14484</v>
+        <v>43795.34639999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>80075.04047000001</v>
+        <v>89849.67606</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>46340.88847999999</v>
+        <v>46197.08236</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>60781.06516</v>
+        <v>60532.16107</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>98612.89008</v>
+        <v>98601.69529999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>113391.70932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>113386.42781</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>55380.748</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>96948.93751</v>
+        <v>89958.47697</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>82493.65436</v>
+        <v>74774.52281000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>201843.48714</v>
+        <v>176001.08387</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>165147.30514</v>
+        <v>166121.14948</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>114889.52642</v>
+        <v>110372.41437</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>175450.99422</v>
+        <v>167175.18892</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>193228.49877</v>
+        <v>208293.75277</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>279469.0914</v>
+        <v>259696.97921</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>265003.71456</v>
+        <v>257602.82784</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>481091.2258900001</v>
+        <v>479597.89062</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>329504.33974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>317311.69515</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>638482.322</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1098982.8837</v>
+        <v>1093278.03742</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1940711.73167</v>
+        <v>1922960.08339</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2667174.922439999</v>
+        <v>2666906.08414</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3024039.898459999</v>
+        <v>3047780.34074</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3070680.49582</v>
+        <v>3095130.89551</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4476444.50781</v>
+        <v>4759419.379369999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3755760.93281</v>
+        <v>4494668.21813</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5446428.08427</v>
+        <v>5338648.14296</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>9559502.49137</v>
+        <v>9500776.709709998</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9799856.617630001</v>
+        <v>9218866.946659999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>11147894.12971</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>10481271.0591</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>17696166.414</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>231690.9882</v>
+        <v>228443.63132</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>303896.44455</v>
+        <v>300972.2186</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>337386.70125</v>
+        <v>327868.7979299999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>540440.1316999999</v>
+        <v>545135.29672</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>497533.0503</v>
+        <v>489972.9076</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>641878.30569</v>
+        <v>676166.33753</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>643690.50202</v>
+        <v>777088.70027</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>706961.27266</v>
+        <v>693971.80939</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1012008.73353</v>
+        <v>1000355.36468</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1026797.36661</v>
+        <v>1018609.91111</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1612268.30021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1590801.7597</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2334819.325</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>867291.8955</v>
+        <v>864834.4061</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1636815.28712</v>
+        <v>1621987.86479</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2329788.221189999</v>
+        <v>2339037.28621</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2483599.76676</v>
+        <v>2502645.04402</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2573147.44552</v>
+        <v>2605157.98791</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3834566.20212</v>
+        <v>4083253.04184</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3112070.43079</v>
+        <v>3717579.51786</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4739466.81161</v>
+        <v>4644676.33357</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>8547493.75784</v>
+        <v>8500421.34503</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>8773059.251019999</v>
+        <v>8200257.03555</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9535625.829500001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8890469.299400002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>15361347.089</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>